--- a/artfynd/A 59526-2025 artfynd.xlsx
+++ b/artfynd/A 59526-2025 artfynd.xlsx
@@ -931,7 +931,7 @@
         <v>130162528</v>
       </c>
       <c r="B4" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 59526-2025 artfynd.xlsx
+++ b/artfynd/A 59526-2025 artfynd.xlsx
@@ -789,7 +789,7 @@
         <v>130162427</v>
       </c>
       <c r="B3" t="n">
-        <v>57851</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
